--- a/mlzjdb/useraction.xlsx
+++ b/mlzjdb/useraction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor.T\Desktop\mlzjdb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\phpstudy\PHPTutorial\WWW\mytest\web-study-git\mlzjdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="useraction" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Comment" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>userId</t>
   </si>
@@ -33,31 +33,44 @@
     <t>gameId</t>
   </si>
   <si>
-    <t>playWay</t>
-  </si>
-  <si>
-    <t>odd1</t>
-  </si>
-  <si>
-    <t>odd1BetTime</t>
-  </si>
-  <si>
-    <t>odd1result</t>
-  </si>
-  <si>
-    <t>odd1Gold</t>
-  </si>
-  <si>
-    <t>odd2</t>
-  </si>
-  <si>
-    <t>odd2BetTime</t>
-  </si>
-  <si>
-    <t>odd2result</t>
-  </si>
-  <si>
-    <t>odd2Gold</t>
+    <t>winL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NKO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet</t>
+  </si>
+  <si>
+    <t>bet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bettime</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>odds</t>
+  </si>
+  <si>
+    <t>betnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -387,58 +400,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -449,12 +443,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mlzjdb/useraction.xlsx
+++ b/mlzjdb/useraction.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>userId</t>
   </si>
@@ -70,6 +70,22 @@
   </si>
   <si>
     <t>betnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0待开奖，1猜中，2未猜中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,19 +416,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -433,6 +450,20 @@
       </c>
       <c r="G1" t="s">
         <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -446,7 +477,7 @@
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B1" sqref="B1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
